--- a/data/trans_dic/P3A$yo-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A$yo-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>59,02; 67,47</t>
+          <t>58,65; 67,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,01; 95,33</t>
+          <t>92,02; 95,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,0; 82,48</t>
+          <t>76,72; 82,47</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,15; 66,31</t>
+          <t>28,0; 66,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,08; 93,77</t>
+          <t>90,13; 93,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,05; 79,26</t>
+          <t>47,58; 79,41</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,73; 71,81</t>
+          <t>63,63; 72,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,49; 96,91</t>
+          <t>89,94; 96,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,72; 88,55</t>
+          <t>78,87; 88,34</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,7; 70,21</t>
+          <t>63,75; 70,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,64; 90,52</t>
+          <t>85,78; 90,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,38; 81,3</t>
+          <t>76,27; 81,34</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,32; 66,75</t>
+          <t>47,57; 66,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,43; 93,24</t>
+          <t>90,35; 93,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,01; 80,23</t>
+          <t>67,01; 80,34</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que la persona entrevistada se ocupa principalmente de las tareas domésticas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1627</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>401782</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>680879</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1082661</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>372385; 427817</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>667438; 692558</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1043579; 1121855</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>619109</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>883438</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1502548</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>333978; 793333</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>864063; 898875</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1023615; 1708519</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>477663</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>870118</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1347781</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>448385; 507459</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>839449; 899971</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1291978; 1447117</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2069</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>622054</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>963142</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1585195</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>590454; 653645</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>938175; 993110</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1540611; 1642909</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4937</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7164</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2120608</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3397577</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5518185</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1645467; 2299797</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3352739; 3457073</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4804174; 5760368</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>